--- a/task-3/Оптимизация_Поиск_Решения.xlsx
+++ b/task-3/Оптимизация_Поиск_Решения.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Артур\Desktop\data-analysis\ITMO-Data-Analysis\task-3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AFF77F2-9740-416B-9285-6E72766AC43D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DE77DFC-1278-4627-B703-DFFD544ACFD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="15375" windowHeight="7875" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Отчет о результатах 1" sheetId="3" r:id="rId1"/>
@@ -26,46 +26,93 @@
   <definedNames>
     <definedName name="day">'[1]январь (3)'!$C$3</definedName>
     <definedName name="solver_adj" localSheetId="3" hidden="1">Оптимизация!$D$6:$F$6</definedName>
+    <definedName name="solver_adj" localSheetId="4" hidden="1">Транспортная!$C$9:$G$12</definedName>
     <definedName name="solver_cvg" localSheetId="3" hidden="1">0.001</definedName>
+    <definedName name="solver_cvg" localSheetId="4" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="3" hidden="1">2</definedName>
-    <definedName name="solver_eng" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_est" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="3" hidden="1">100</definedName>
+    <definedName name="solver_itr" localSheetId="4" hidden="1">2147483647</definedName>
     <definedName name="solver_lhs1" localSheetId="3" hidden="1">Оптимизация!$C$3:$C$5</definedName>
+    <definedName name="solver_lhs1" localSheetId="4" hidden="1">Транспортная!$C$13</definedName>
     <definedName name="solver_lhs2" localSheetId="3" hidden="1">Оптимизация!$D$3:$F$5</definedName>
+    <definedName name="solver_lhs2" localSheetId="4" hidden="1">Транспортная!$D$13</definedName>
     <definedName name="solver_lhs3" localSheetId="3" hidden="1">Оптимизация!$D$6:$F$6</definedName>
+    <definedName name="solver_lhs3" localSheetId="4" hidden="1">Транспортная!$E$13</definedName>
+    <definedName name="solver_lhs4" localSheetId="4" hidden="1">Транспортная!$F$13</definedName>
+    <definedName name="solver_lhs5" localSheetId="4" hidden="1">Транспортная!$G$13</definedName>
+    <definedName name="solver_lhs6" localSheetId="4" hidden="1">Транспортная!$H$10</definedName>
+    <definedName name="solver_lhs7" localSheetId="4" hidden="1">Транспортная!$H$11</definedName>
+    <definedName name="solver_lhs8" localSheetId="4" hidden="1">Транспортная!$H$12</definedName>
+    <definedName name="solver_lhs9" localSheetId="4" hidden="1">Транспортная!$H$9</definedName>
     <definedName name="solver_lin" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_mip" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="4" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="3" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="4" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="3" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="4" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="4" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="3" hidden="1">2</definedName>
-    <definedName name="solver_num" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_num" localSheetId="4" hidden="1">9</definedName>
     <definedName name="solver_nwt" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="3" hidden="1">Оптимизация!$G$6</definedName>
-    <definedName name="solver_opt" localSheetId="4" hidden="1">Транспортная!$G$22</definedName>
+    <definedName name="solver_opt" localSheetId="4" hidden="1">Транспортная!$C$16</definedName>
     <definedName name="solver_pre" localSheetId="3" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="4" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_rel1" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_rel2" localSheetId="3" hidden="1">3</definedName>
+    <definedName name="solver_rel2" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_rel3" localSheetId="3" hidden="1">4</definedName>
+    <definedName name="solver_rel3" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rel4" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rel5" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rel6" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_rel7" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_rel8" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_rel9" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_rhs1" localSheetId="3" hidden="1">Оптимизация!$B$3:$B$5</definedName>
+    <definedName name="solver_rhs1" localSheetId="4" hidden="1">Транспортная!$C$14</definedName>
     <definedName name="solver_rhs2" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_rhs2" localSheetId="4" hidden="1">Транспортная!$D$14</definedName>
     <definedName name="solver_rhs3" localSheetId="3" hidden="1">целое</definedName>
+    <definedName name="solver_rhs3" localSheetId="4" hidden="1">Транспортная!$E$14</definedName>
+    <definedName name="solver_rhs4" localSheetId="4" hidden="1">Транспортная!$F$14</definedName>
+    <definedName name="solver_rhs5" localSheetId="4" hidden="1">Транспортная!$G$14</definedName>
+    <definedName name="solver_rhs6" localSheetId="4" hidden="1">Транспортная!$J$4</definedName>
+    <definedName name="solver_rhs7" localSheetId="4" hidden="1">Транспортная!$J$5</definedName>
+    <definedName name="solver_rhs8" localSheetId="4" hidden="1">Транспортная!$J$6</definedName>
+    <definedName name="solver_rhs9" localSheetId="4" hidden="1">Транспортная!$J$3</definedName>
     <definedName name="solver_rlx" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_rlx" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="4" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_scl" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_ssz" localSheetId="3" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="4" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="3" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="4" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="3" hidden="1">0.05</definedName>
+    <definedName name="solver_tol" localSheetId="4" hidden="1">0.01</definedName>
     <definedName name="solver_typ" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_typ" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_val" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="4" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="3" hidden="1">3</definedName>
@@ -671,7 +718,7 @@
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
@@ -684,6 +731,21 @@
     <xf numFmtId="1" fontId="1" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="2" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -714,20 +776,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -739,74 +787,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -859,7 +839,7 @@
         </a:solidFill>
         <a:ln w="9525">
           <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="363636" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
           </a:solidFill>
           <a:miter lim="800000"/>
           <a:headEnd/>
@@ -1006,7 +986,7 @@
         </a:solidFill>
         <a:ln w="9525">
           <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="363636" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
           </a:solidFill>
           <a:miter lim="800000"/>
           <a:headEnd/>
@@ -1093,7 +1073,7 @@
         </a:solidFill>
         <a:ln w="9525">
           <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="363636" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
           </a:solidFill>
           <a:miter lim="800000"/>
           <a:headEnd/>
@@ -1161,7 +1141,7 @@
         </a:solidFill>
         <a:ln w="9525">
           <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="363636" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
           </a:solidFill>
           <a:miter lim="800000"/>
           <a:headEnd/>
@@ -1278,7 +1258,7 @@
         </a:solidFill>
         <a:ln w="9525">
           <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="363636" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
           </a:solidFill>
           <a:miter lim="800000"/>
           <a:headEnd/>
@@ -1448,10 +1428,10 @@
   <a:themeElements>
     <a:clrScheme name="Стандартная">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="363636"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FCFCFC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1780,50 +1760,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="12" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="12" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="12" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="12" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="12" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="22"/>
+      <c r="A6" s="12"/>
       <c r="B6" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="22"/>
+      <c r="A7" s="12"/>
       <c r="B7" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="22"/>
+      <c r="A8" s="12"/>
       <c r="B8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="12" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1843,30 +1823,30 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="24" t="s">
+      <c r="D15" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="E15" s="24" t="s">
+      <c r="E15" s="14" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="26">
+      <c r="D16" s="16">
         <v>216.66666666666669</v>
       </c>
-      <c r="E16" s="26">
+      <c r="E16" s="16">
         <v>216.66666666666669</v>
       </c>
     </row>
@@ -1876,70 +1856,70 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="C20" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="24" t="s">
+      <c r="D20" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="E20" s="24" t="s">
+      <c r="E20" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="F20" s="24" t="s">
+      <c r="F20" s="14" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B21" s="25" t="s">
+      <c r="B21" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="25" t="s">
+      <c r="C21" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="D21" s="27">
+      <c r="D21" s="17">
         <v>183.33333333333334</v>
       </c>
-      <c r="E21" s="27">
+      <c r="E21" s="17">
         <v>183.33333333333334</v>
       </c>
-      <c r="F21" s="25" t="s">
+      <c r="F21" s="15" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B22" s="25" t="s">
+      <c r="B22" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="C22" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="27">
+      <c r="D22" s="17">
         <v>25</v>
       </c>
-      <c r="E22" s="27">
+      <c r="E22" s="17">
         <v>25</v>
       </c>
-      <c r="F22" s="25" t="s">
+      <c r="F22" s="15" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="23" t="s">
+      <c r="C23" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D23" s="26">
+      <c r="D23" s="16">
         <v>8.3333333333333321</v>
       </c>
-      <c r="E23" s="26">
+      <c r="E23" s="16">
         <v>8.3333333333333321</v>
       </c>
-      <c r="F23" s="23" t="s">
+      <c r="F23" s="13" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1949,262 +1929,262 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="24" t="s">
+      <c r="B27" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="24" t="s">
+      <c r="C27" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D27" s="24" t="s">
+      <c r="D27" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="E27" s="24" t="s">
+      <c r="E27" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="F27" s="24" t="s">
+      <c r="F27" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="G27" s="24" t="s">
+      <c r="G27" s="14" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B28" s="25" t="s">
+      <c r="B28" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="C28" s="25" t="s">
+      <c r="C28" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="D28" s="27">
+      <c r="D28" s="17">
         <v>500</v>
       </c>
-      <c r="E28" s="25" t="s">
+      <c r="E28" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="F28" s="25" t="s">
+      <c r="F28" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="G28" s="25">
+      <c r="G28" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B29" s="25" t="s">
+      <c r="B29" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="C29" s="25" t="s">
+      <c r="C29" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="D29" s="27">
+      <c r="D29" s="17">
         <v>400</v>
       </c>
-      <c r="E29" s="25" t="s">
+      <c r="E29" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="F29" s="25" t="s">
+      <c r="F29" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="G29" s="25">
+      <c r="G29" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B30" s="25" t="s">
+      <c r="B30" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="C30" s="25" t="s">
+      <c r="C30" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="D30" s="27">
+      <c r="D30" s="17">
         <v>400</v>
       </c>
-      <c r="E30" s="25" t="s">
+      <c r="E30" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="F30" s="25" t="s">
+      <c r="F30" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="G30" s="25">
+      <c r="G30" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B31" s="25" t="s">
+      <c r="B31" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="C31" s="25" t="s">
+      <c r="C31" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="D31" s="27">
+      <c r="D31" s="17">
         <v>2</v>
       </c>
-      <c r="E31" s="25" t="s">
+      <c r="E31" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="F31" s="25" t="s">
+      <c r="F31" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="G31" s="27">
+      <c r="G31" s="17">
         <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B32" s="25" t="s">
+      <c r="B32" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="C32" s="25" t="s">
+      <c r="C32" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="D32" s="27">
+      <c r="D32" s="17">
         <v>5</v>
       </c>
-      <c r="E32" s="25" t="s">
+      <c r="E32" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="F32" s="25" t="s">
+      <c r="F32" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="G32" s="27">
+      <c r="G32" s="17">
         <v>5</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B33" s="25" t="s">
+      <c r="B33" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="C33" s="25" t="s">
+      <c r="C33" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="D33" s="27">
+      <c r="D33" s="17">
         <v>1</v>
       </c>
-      <c r="E33" s="25" t="s">
+      <c r="E33" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="F33" s="25" t="s">
+      <c r="F33" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="G33" s="27">
+      <c r="G33" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B34" s="25" t="s">
+      <c r="B34" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="C34" s="25" t="s">
+      <c r="C34" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="D34" s="27">
+      <c r="D34" s="17">
         <v>2</v>
       </c>
-      <c r="E34" s="25" t="s">
+      <c r="E34" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="F34" s="25" t="s">
+      <c r="F34" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="G34" s="27">
+      <c r="G34" s="17">
         <v>2</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B35" s="25" t="s">
+      <c r="B35" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="C35" s="25" t="s">
+      <c r="C35" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="D35" s="27">
-        <v>0</v>
-      </c>
-      <c r="E35" s="25" t="s">
+      <c r="D35" s="17">
+        <v>0</v>
+      </c>
+      <c r="E35" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="F35" s="25" t="s">
+      <c r="F35" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="G35" s="27">
+      <c r="G35" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B36" s="25" t="s">
+      <c r="B36" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="C36" s="25" t="s">
+      <c r="C36" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="D36" s="27">
+      <c r="D36" s="17">
         <v>4</v>
       </c>
-      <c r="E36" s="25" t="s">
+      <c r="E36" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="F36" s="25" t="s">
+      <c r="F36" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="G36" s="27">
+      <c r="G36" s="17">
         <v>4</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B37" s="25" t="s">
+      <c r="B37" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="C37" s="25" t="s">
+      <c r="C37" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="D37" s="27">
+      <c r="D37" s="17">
         <v>2</v>
       </c>
-      <c r="E37" s="25" t="s">
+      <c r="E37" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="F37" s="25" t="s">
+      <c r="F37" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="G37" s="27">
+      <c r="G37" s="17">
         <v>2</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B38" s="25" t="s">
+      <c r="B38" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="C38" s="25" t="s">
+      <c r="C38" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="D38" s="27">
+      <c r="D38" s="17">
         <v>1</v>
       </c>
-      <c r="E38" s="25" t="s">
+      <c r="E38" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="F38" s="25" t="s">
+      <c r="F38" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="G38" s="27">
+      <c r="G38" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="23" t="s">
+      <c r="B39" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="C39" s="23" t="s">
+      <c r="C39" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="D39" s="26">
+      <c r="D39" s="16">
         <v>1</v>
       </c>
-      <c r="E39" s="23" t="s">
+      <c r="E39" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="F39" s="23" t="s">
+      <c r="F39" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="G39" s="26">
+      <c r="G39" s="16">
         <v>1</v>
       </c>
     </row>
@@ -2232,17 +2212,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="12" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="12" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="12" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2252,113 +2232,113 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28" t="s">
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="E7" s="28" t="s">
+      <c r="E7" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="F7" s="28" t="s">
+      <c r="F7" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="G7" s="28" t="s">
+      <c r="G7" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="H7" s="28" t="s">
+      <c r="H7" s="18" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="29" t="s">
+      <c r="D8" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="E8" s="29" t="s">
+      <c r="E8" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="F8" s="29" t="s">
+      <c r="F8" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="G8" s="29" t="s">
+      <c r="G8" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="H8" s="29" t="s">
+      <c r="H8" s="19" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="25">
+      <c r="D9" s="15">
         <v>183.33333333333334</v>
       </c>
-      <c r="E9" s="25">
-        <v>0</v>
-      </c>
-      <c r="F9" s="25">
+      <c r="E9" s="15">
+        <v>0</v>
+      </c>
+      <c r="F9" s="15">
         <v>1</v>
       </c>
-      <c r="G9" s="25">
+      <c r="G9" s="15">
         <v>1</v>
       </c>
-      <c r="H9" s="25">
+      <c r="H9" s="15">
         <v>0.20000000000000004</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="25">
+      <c r="D10" s="15">
         <v>25</v>
       </c>
-      <c r="E10" s="25">
-        <v>0</v>
-      </c>
-      <c r="F10" s="25">
+      <c r="E10" s="15">
+        <v>0</v>
+      </c>
+      <c r="F10" s="15">
         <v>1</v>
       </c>
-      <c r="G10" s="25">
+      <c r="G10" s="15">
         <v>0.66666666666666674</v>
       </c>
-      <c r="H10" s="25">
+      <c r="H10" s="15">
         <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D11" s="23">
+      <c r="D11" s="13">
         <v>8.3333333333333321</v>
       </c>
-      <c r="E11" s="23">
-        <v>0</v>
-      </c>
-      <c r="F11" s="23">
+      <c r="E11" s="13">
+        <v>0</v>
+      </c>
+      <c r="F11" s="13">
         <v>1</v>
       </c>
-      <c r="G11" s="23">
+      <c r="G11" s="13">
         <v>0.40000000000000008</v>
       </c>
-      <c r="H11" s="23">
+      <c r="H11" s="13">
         <v>0.5</v>
       </c>
     </row>
@@ -2368,320 +2348,320 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28" t="s">
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="E14" s="28" t="s">
+      <c r="E14" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="F14" s="28" t="s">
+      <c r="F14" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="G14" s="28" t="s">
+      <c r="G14" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="H14" s="28" t="s">
+      <c r="H14" s="18" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="29" t="s">
+      <c r="D15" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="E15" s="29" t="s">
+      <c r="E15" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="F15" s="29" t="s">
+      <c r="F15" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="G15" s="29" t="s">
+      <c r="G15" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="H15" s="29" t="s">
+      <c r="H15" s="19" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="D16" s="25">
+      <c r="D16" s="15">
         <v>500</v>
       </c>
-      <c r="E16" s="25">
+      <c r="E16" s="15">
         <v>0.16666666666666666</v>
       </c>
-      <c r="F16" s="25">
+      <c r="F16" s="15">
         <v>500</v>
       </c>
-      <c r="G16" s="25">
+      <c r="G16" s="15">
         <v>1100.0000000000002</v>
       </c>
-      <c r="H16" s="25">
+      <c r="H16" s="15">
         <v>99.999999999999986</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="D17" s="25">
+      <c r="D17" s="15">
         <v>400</v>
       </c>
-      <c r="E17" s="25">
+      <c r="E17" s="15">
         <v>0.16666666666666666</v>
       </c>
-      <c r="F17" s="25">
+      <c r="F17" s="15">
         <v>400</v>
       </c>
-      <c r="G17" s="25">
+      <c r="G17" s="15">
         <v>1100.0000000000002</v>
       </c>
-      <c r="H17" s="25">
+      <c r="H17" s="15">
         <v>24.999999999999996</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="C18" s="25" t="s">
+      <c r="C18" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="D18" s="25">
+      <c r="D18" s="15">
         <v>400</v>
       </c>
-      <c r="E18" s="25">
+      <c r="E18" s="15">
         <v>0.16666666666666669</v>
       </c>
-      <c r="F18" s="25">
+      <c r="F18" s="15">
         <v>400</v>
       </c>
-      <c r="G18" s="25">
+      <c r="G18" s="15">
         <v>20</v>
       </c>
-      <c r="H18" s="25">
+      <c r="H18" s="15">
         <v>220.00000000000003</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="C19" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="D19" s="25">
+      <c r="D19" s="15">
         <v>2</v>
       </c>
-      <c r="E19" s="25">
-        <v>0</v>
-      </c>
-      <c r="F19" s="25">
-        <v>0</v>
-      </c>
-      <c r="G19" s="25">
+      <c r="E19" s="15">
+        <v>0</v>
+      </c>
+      <c r="F19" s="15">
+        <v>0</v>
+      </c>
+      <c r="G19" s="15">
         <v>2</v>
       </c>
-      <c r="H19" s="25">
+      <c r="H19" s="15">
         <v>1E+30</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="C20" s="25" t="s">
+      <c r="C20" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="D20" s="25">
+      <c r="D20" s="15">
         <v>5</v>
       </c>
-      <c r="E20" s="25">
-        <v>0</v>
-      </c>
-      <c r="F20" s="25">
-        <v>0</v>
-      </c>
-      <c r="G20" s="25">
+      <c r="E20" s="15">
+        <v>0</v>
+      </c>
+      <c r="F20" s="15">
+        <v>0</v>
+      </c>
+      <c r="G20" s="15">
         <v>5</v>
       </c>
-      <c r="H20" s="25">
+      <c r="H20" s="15">
         <v>1E+30</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B21" s="25" t="s">
+      <c r="B21" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="C21" s="25" t="s">
+      <c r="C21" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="D21" s="25">
+      <c r="D21" s="15">
         <v>1</v>
       </c>
-      <c r="E21" s="25">
-        <v>0</v>
-      </c>
-      <c r="F21" s="25">
-        <v>0</v>
-      </c>
-      <c r="G21" s="25">
+      <c r="E21" s="15">
+        <v>0</v>
+      </c>
+      <c r="F21" s="15">
+        <v>0</v>
+      </c>
+      <c r="G21" s="15">
         <v>1</v>
       </c>
-      <c r="H21" s="25">
+      <c r="H21" s="15">
         <v>1E+30</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B22" s="25" t="s">
+      <c r="B22" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="C22" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="D22" s="25">
+      <c r="D22" s="15">
         <v>2</v>
       </c>
-      <c r="E22" s="25">
-        <v>0</v>
-      </c>
-      <c r="F22" s="25">
-        <v>0</v>
-      </c>
-      <c r="G22" s="25">
+      <c r="E22" s="15">
+        <v>0</v>
+      </c>
+      <c r="F22" s="15">
+        <v>0</v>
+      </c>
+      <c r="G22" s="15">
         <v>2</v>
       </c>
-      <c r="H22" s="25">
+      <c r="H22" s="15">
         <v>1E+30</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="C23" s="25" t="s">
+      <c r="C23" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="D23" s="25">
-        <v>0</v>
-      </c>
-      <c r="E23" s="25">
-        <v>0</v>
-      </c>
-      <c r="F23" s="25">
-        <v>0</v>
-      </c>
-      <c r="G23" s="25">
-        <v>0</v>
-      </c>
-      <c r="H23" s="25">
+      <c r="D23" s="15">
+        <v>0</v>
+      </c>
+      <c r="E23" s="15">
+        <v>0</v>
+      </c>
+      <c r="F23" s="15">
+        <v>0</v>
+      </c>
+      <c r="G23" s="15">
+        <v>0</v>
+      </c>
+      <c r="H23" s="15">
         <v>1E+30</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="C24" s="25" t="s">
+      <c r="C24" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="D24" s="25">
+      <c r="D24" s="15">
         <v>4</v>
       </c>
-      <c r="E24" s="25">
-        <v>0</v>
-      </c>
-      <c r="F24" s="25">
-        <v>0</v>
-      </c>
-      <c r="G24" s="25">
+      <c r="E24" s="15">
+        <v>0</v>
+      </c>
+      <c r="F24" s="15">
+        <v>0</v>
+      </c>
+      <c r="G24" s="15">
         <v>4</v>
       </c>
-      <c r="H24" s="25">
+      <c r="H24" s="15">
         <v>1E+30</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B25" s="25" t="s">
+      <c r="B25" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="C25" s="25" t="s">
+      <c r="C25" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="D25" s="25">
+      <c r="D25" s="15">
         <v>2</v>
       </c>
-      <c r="E25" s="25">
-        <v>0</v>
-      </c>
-      <c r="F25" s="25">
-        <v>0</v>
-      </c>
-      <c r="G25" s="25">
+      <c r="E25" s="15">
+        <v>0</v>
+      </c>
+      <c r="F25" s="15">
+        <v>0</v>
+      </c>
+      <c r="G25" s="15">
         <v>2</v>
       </c>
-      <c r="H25" s="25">
+      <c r="H25" s="15">
         <v>1E+30</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B26" s="25" t="s">
+      <c r="B26" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="C26" s="25" t="s">
+      <c r="C26" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="D26" s="25">
+      <c r="D26" s="15">
         <v>1</v>
       </c>
-      <c r="E26" s="25">
-        <v>0</v>
-      </c>
-      <c r="F26" s="25">
-        <v>0</v>
-      </c>
-      <c r="G26" s="25">
+      <c r="E26" s="15">
+        <v>0</v>
+      </c>
+      <c r="F26" s="15">
+        <v>0</v>
+      </c>
+      <c r="G26" s="15">
         <v>1</v>
       </c>
-      <c r="H26" s="25">
+      <c r="H26" s="15">
         <v>1E+30</v>
       </c>
     </row>
     <row r="27" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="23" t="s">
+      <c r="B27" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="C27" s="23" t="s">
+      <c r="C27" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="D27" s="23">
+      <c r="D27" s="13">
         <v>1</v>
       </c>
-      <c r="E27" s="23">
-        <v>0</v>
-      </c>
-      <c r="F27" s="23">
-        <v>0</v>
-      </c>
-      <c r="G27" s="23">
+      <c r="E27" s="13">
+        <v>0</v>
+      </c>
+      <c r="F27" s="13">
+        <v>0</v>
+      </c>
+      <c r="G27" s="13">
         <v>1</v>
       </c>
-      <c r="H27" s="23">
+      <c r="H27" s="13">
         <v>1E+30</v>
       </c>
     </row>
@@ -2712,159 +2692,159 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="12" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="12" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="12" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B6" s="28"/>
-      <c r="C6" s="28" t="s">
+      <c r="B6" s="18"/>
+      <c r="C6" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="D6" s="28"/>
+      <c r="D6" s="18"/>
     </row>
     <row r="7" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="19" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="26">
+      <c r="D8" s="16">
         <v>216.66666666666669</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B11" s="28"/>
-      <c r="C11" s="28" t="s">
+      <c r="B11" s="18"/>
+      <c r="C11" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="F11" s="28" t="s">
+      <c r="D11" s="18"/>
+      <c r="F11" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="G11" s="28" t="s">
+      <c r="G11" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="I11" s="28" t="s">
+      <c r="I11" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="J11" s="28" t="s">
+      <c r="J11" s="18" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="F12" s="29" t="s">
+      <c r="F12" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="G12" s="29" t="s">
+      <c r="G12" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="I12" s="29" t="s">
+      <c r="I12" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="J12" s="29" t="s">
+      <c r="J12" s="19" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="27">
+      <c r="D13" s="17">
         <v>183.33333333333334</v>
       </c>
-      <c r="F13" s="27">
-        <v>0</v>
-      </c>
-      <c r="G13" s="27">
+      <c r="F13" s="17">
+        <v>0</v>
+      </c>
+      <c r="G13" s="17">
         <v>33.333333333333329</v>
       </c>
-      <c r="I13" s="27">
+      <c r="I13" s="17">
         <v>183.33333333333331</v>
       </c>
-      <c r="J13" s="27">
+      <c r="J13" s="17">
         <v>216.66666666666666</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="D14" s="27">
+      <c r="D14" s="17">
         <v>25</v>
       </c>
-      <c r="F14" s="27">
-        <v>0</v>
-      </c>
-      <c r="G14" s="27">
+      <c r="F14" s="17">
+        <v>0</v>
+      </c>
+      <c r="G14" s="17">
         <v>191.66666666666669</v>
       </c>
-      <c r="I14" s="27">
+      <c r="I14" s="17">
         <v>25</v>
       </c>
-      <c r="J14" s="27">
+      <c r="J14" s="17">
         <v>216.66666666666669</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D15" s="26">
+      <c r="D15" s="16">
         <v>8.3333333333333321</v>
       </c>
-      <c r="F15" s="26">
-        <v>0</v>
-      </c>
-      <c r="G15" s="26">
+      <c r="F15" s="16">
+        <v>0</v>
+      </c>
+      <c r="G15" s="16">
         <v>208.33333333333334</v>
       </c>
-      <c r="I15" s="26">
+      <c r="I15" s="16">
         <v>8.3333333333333144</v>
       </c>
-      <c r="J15" s="26">
+      <c r="J15" s="16">
         <v>216.66666666666666</v>
       </c>
     </row>
@@ -2878,7 +2858,7 @@
   <sheetPr codeName="Лист23"/>
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
@@ -2894,23 +2874,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="14" t="s">
+      <c r="A1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
     </row>
     <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
       <c r="D2" s="11" t="s">
         <v>25</v>
       </c>
@@ -2985,11 +2965,11 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="17"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="26"/>
       <c r="D6" s="3">
         <v>183.33333333333334</v>
       </c>
@@ -3023,8 +3003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3038,23 +3018,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="I1" s="18" t="s">
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="I1" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="19"/>
+      <c r="J1" s="28"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="18"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="5" t="s">
         <v>10</v>
       </c>
@@ -3075,7 +3055,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="29" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -3100,12 +3080,11 @@
         <v>200</v>
       </c>
       <c r="J3" s="7">
-        <f>SUM(C9:G9)</f>
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="20"/>
+      <c r="A4" s="29"/>
       <c r="B4" s="5" t="s">
         <v>18</v>
       </c>
@@ -3128,12 +3107,11 @@
         <v>150</v>
       </c>
       <c r="J4" s="7">
-        <f>SUM(C10:G10)</f>
-        <v>0</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="20"/>
+      <c r="A5" s="29"/>
       <c r="B5" s="5" t="s">
         <v>19</v>
       </c>
@@ -3156,12 +3134,11 @@
         <v>225</v>
       </c>
       <c r="J5" s="7">
-        <f>SUM(C11:G11)</f>
-        <v>0</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="20"/>
+      <c r="A6" s="29"/>
       <c r="B6" s="5" t="s">
         <v>20</v>
       </c>
@@ -3184,8 +3161,7 @@
         <v>175</v>
       </c>
       <c r="J6" s="7">
-        <f>SUM(C12:G12)</f>
-        <v>0</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -3206,44 +3182,100 @@
       <c r="B9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
+      <c r="C9" s="8">
+        <v>100</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0</v>
+      </c>
+      <c r="E9" s="8">
+        <v>50</v>
+      </c>
+      <c r="F9" s="8">
+        <v>0</v>
+      </c>
+      <c r="G9" s="8">
+        <v>50</v>
+      </c>
+      <c r="H9" s="20">
+        <f>SUM(C9:G9)</f>
+        <v>200</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
+      <c r="C10" s="8">
+        <v>0</v>
+      </c>
+      <c r="D10" s="8">
+        <v>0</v>
+      </c>
+      <c r="E10" s="8">
+        <v>0</v>
+      </c>
+      <c r="F10" s="8">
+        <v>150</v>
+      </c>
+      <c r="G10" s="8">
+        <v>0</v>
+      </c>
+      <c r="H10" s="20">
+        <f t="shared" ref="H10:H12" si="0">SUM(C10:G10)</f>
+        <v>150</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
+      <c r="C11" s="8">
+        <v>0</v>
+      </c>
+      <c r="D11" s="8">
+        <v>25</v>
+      </c>
+      <c r="E11" s="8">
+        <v>0</v>
+      </c>
+      <c r="F11" s="8">
+        <v>100</v>
+      </c>
+      <c r="G11" s="8">
+        <v>100</v>
+      </c>
+      <c r="H11" s="20">
+        <f t="shared" si="0"/>
+        <v>225</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
+      <c r="C12" s="8">
+        <v>0</v>
+      </c>
+      <c r="D12" s="8">
+        <v>175</v>
+      </c>
+      <c r="E12" s="8">
+        <v>0</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0</v>
+      </c>
+      <c r="G12" s="8">
+        <v>0</v>
+      </c>
+      <c r="H12" s="20">
+        <f t="shared" si="0"/>
+        <v>175</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="27" t="s">
         <v>23</v>
       </c>
       <c r="B13" s="5" t="s">
@@ -3251,30 +3283,30 @@
       </c>
       <c r="C13" s="9">
         <f>SUM(C9:C12)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D13" s="9">
         <f>SUM(D9:D12)</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E13" s="9">
         <f>SUM(E9:E12)</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F13" s="9">
         <f>SUM(F9:F12)</f>
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G13" s="9">
         <f>SUM(G9:G12)</f>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="19"/>
+      <c r="A14" s="28"/>
       <c r="C14" s="5">
         <v>100</v>
       </c>
@@ -3298,7 +3330,7 @@
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C16" s="10">
         <f>SUMPRODUCT(C3:G6,C9:G12)</f>
-        <v>0</v>
+        <v>975</v>
       </c>
     </row>
   </sheetData>
